--- a/xlsx/FR/heating_expenses_FR.xlsx
+++ b/xlsx/FR/heating_expenses_FR.xlsx
@@ -12,30 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Monthly heating expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76-125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251-300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Included</t>
   </si>
 </sst>
 </file>
@@ -374,67 +380,69 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0564616338874251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.365413532096196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.300633270082361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.190648538374</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0558701369078836</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B7" t="n">
+        <v>0.0140364748161101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0169364138360247</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.24802342723772</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/heating_expenses_FR.xlsx
+++ b/xlsx/FR/heating_expenses_FR.xlsx
@@ -386,7 +386,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0564616338874251</v>
+        <v>0.0461641023147382</v>
       </c>
     </row>
     <row r="3">
@@ -394,7 +394,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.365413532096196</v>
+        <v>0.365207760653429</v>
       </c>
     </row>
     <row r="4">
@@ -402,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.300633270082361</v>
+        <v>0.299475687535971</v>
       </c>
     </row>
     <row r="5">
@@ -410,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190648538374</v>
+        <v>0.198123015323388</v>
       </c>
     </row>
     <row r="6">
@@ -418,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0558701369078836</v>
+        <v>0.0492994408959108</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0140364748161101</v>
+        <v>0.0212368256082541</v>
       </c>
     </row>
     <row r="8">
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0169364138360247</v>
+        <v>0.0204931676683096</v>
       </c>
     </row>
     <row r="9">
@@ -442,7 +442,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.24802342723772</v>
+        <v>0.258628267407056</v>
       </c>
     </row>
   </sheetData>
